--- a/ProductCentralProject-Automation/testdata.xlsx
+++ b/ProductCentralProject-Automation/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="6075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="5130"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>erinc.suluk@net-effect.com</t>
   </si>
@@ -81,6 +81,24 @@
   </si>
   <si>
     <t>ProductListingURL</t>
+  </si>
+  <si>
+    <t>https://productcentral-qa.products.pwc.com/content/pc/us/en/automation/security.html</t>
+  </si>
+  <si>
+    <t>securityPublisher</t>
+  </si>
+  <si>
+    <t>https://productcentral-qa.products.pwc.com/content/pc/us/en/my-products/product-2.html</t>
+  </si>
+  <si>
+    <t>productPage</t>
+  </si>
+  <si>
+    <t>https://ums-productcentral-qa.pwc.com/</t>
+  </si>
+  <si>
+    <t>ums</t>
   </si>
 </sst>
 </file>
@@ -433,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,12 +551,37 @@
         <v>19</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B14" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProductCentralProject-Automation/testdata.xlsx
+++ b/ProductCentralProject-Automation/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="5130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="5115"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>erinc.suluk@net-effect.com</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>ums</t>
+  </si>
+  <si>
+    <t>https://productcentral-qa.products.pwc.com/content/pc/us/en/automation/products.html</t>
+  </si>
+  <si>
+    <t>productslisting</t>
   </si>
 </sst>
 </file>
@@ -451,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,6 +581,14 @@
         <v>26</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>

--- a/ProductCentralProject-Automation/testdata.xlsx
+++ b/ProductCentralProject-Automation/testdata.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>erinc.suluk@net-effect.com</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>productslisting</t>
+  </si>
+  <si>
+    <t>HOMEPAGE</t>
+  </si>
+  <si>
+    <t>https://productcentral-qa.products.pwc.com/us/en/homepage.html</t>
   </si>
 </sst>
 </file>
@@ -457,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,6 +595,17 @@
         <v>28</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
